--- a/docs/source/recursos/pec_porcino_v2/tabla_por_pesos_globales.xlsx
+++ b/docs/source/recursos/pec_porcino_v2/tabla_por_pesos_globales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\pec_porcino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0460A38-5220-437A-B90F-478172003831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C4EF83-916A-4287-A8E7-030B04C355EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="270" windowWidth="7395" windowHeight="9165" xr2:uid="{33741AF0-3BD8-4458-A0E5-9B911B771AE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{33741AF0-3BD8-4458-A0E5-9B911B771AE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,34 +41,34 @@
     <t>Cobertura</t>
   </si>
   <si>
-    <t>Profundidad del acuífero</t>
-  </si>
-  <si>
     <t>Distancia a redes eléctricas</t>
   </si>
   <si>
     <t>Criterio</t>
   </si>
   <si>
-    <t>Puerto Progreso</t>
-  </si>
-  <si>
-    <t>Distancia a rastro y empacadoras</t>
-  </si>
-  <si>
-    <t>Caminos y veredas</t>
-  </si>
-  <si>
-    <t>Carreteras</t>
-  </si>
-  <si>
     <t>Rurales</t>
   </si>
   <si>
-    <t>Urbanas</t>
-  </si>
-  <si>
-    <t>Rurales-Urbanas</t>
+    <t>Distancia a Puerto Progreso</t>
+  </si>
+  <si>
+    <t>Distancia a carreteras</t>
+  </si>
+  <si>
+    <t>Distancia a caminos y veredas</t>
+  </si>
+  <si>
+    <t>Distancia a rastro y empacadora</t>
+  </si>
+  <si>
+    <t>Costo de extracción de agua</t>
+  </si>
+  <si>
+    <t>Rural-Urbano</t>
+  </si>
+  <si>
+    <t>Urbanos</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +460,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4">
         <v>0.26526176000000001</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>0.232140714</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>0.16102492000000002</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4">
         <v>8.7476208E-2</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4">
         <v>5.2853020000000001E-2</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4">
         <v>3.0167940000000004E-2</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>1.1569580000000001E-2</v>
